--- a/data/trans_dic/P16B15-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,61; 100,0</t>
+          <t>75,2; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +696,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,04; 100,0</t>
+          <t>79,54; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,1; 100,0</t>
+          <t>84,88; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89,18; 100,0</t>
+          <t>84,98; 100,0</t>
         </is>
       </c>
     </row>
@@ -805,7 +806,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,83; 100,0</t>
+          <t>79,99; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,23; 100,0</t>
+          <t>87,78; 100,0</t>
         </is>
       </c>
     </row>
@@ -915,7 +916,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,99; 100,0</t>
+          <t>92,46; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,77; 100,0</t>
+          <t>93,99; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100,0</t>
+          <t>94,76; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,27; 100,0</t>
+          <t>96,26; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,32; 100,0</t>
+          <t>90,74; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,22 +1041,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100,0</t>
+          <t>88,02; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,61; 100,0</t>
+          <t>95,92; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>97,16; 100,0</t>
+          <t>97,48; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,72; 100,0</t>
+          <t>95,77; 100,0</t>
         </is>
       </c>
     </row>
@@ -1250,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,75; 100,0</t>
+          <t>95,87; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100,0</t>
+          <t>97,0; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>96,32; 100,0</t>
+          <t>95,74; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,33; 100,0</t>
+          <t>97,44; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,72; 99,56</t>
+          <t>95,33; 99,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98,82; 100,0</t>
+          <t>98,55; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,58; 99,67</t>
+          <t>95,78; 99,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>97,33; 99,68</t>
+          <t>97,11; 99,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,83; 100,0</t>
+          <t>98,76; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>98,1; 100,0</t>
+          <t>98,11; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,27; 99,51</t>
+          <t>97,5; 99,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>99,08; 100,0</t>
+          <t>99,07; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>98,03; 99,7</t>
+          <t>97,98; 99,66</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para bajar el colesterol fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25052</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37497</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>35222</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13988</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17636</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14918</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39040</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55133</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>50140</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20361; 27077</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35329; 37497</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29089; 36571</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12101; 13988</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15670; 17636</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12754; 14918</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34856; 41065</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>52981; 55133</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>43753; 51489</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19861</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38035</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28881</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11172</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22083</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22415</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31033</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60118</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51295</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18064; 19861</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36018; 38035</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24736; 30924</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9419; 11172</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19986; 22083</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20287; 22415</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>29183; 31033</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58027; 60118</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46821; 53338</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30319</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74055</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>56281</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10994</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20952</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20914</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41312</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>95007</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>77195</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28454; 30319</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>71939; 74055</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>52927; 57245</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9269; 10994</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19056; 20952</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18711; 20914</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39433; 41312</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92915; 95007</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>73461; 78159</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>92391</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>137887</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>115573</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40658</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60689</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>49082</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>133049</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>198576</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>164655</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>88434; 93326</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>133706; 138894</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>113646; 115573</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>37681; 41525</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>58578; 60689</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44956; 51075</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>129354; 134851</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>194549; 199583</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>159599; 166648</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16254</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>58719</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>68476</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>44597</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>115130</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>96196</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>60851</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>173849</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>164672</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14631; 16254</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>56676; 58719</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66704; 68476</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>42660; 44597</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>113067; 115130</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>94077; 96196</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>58972; 60851</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>171778; 173849</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>162698; 164672</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2402</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>142693</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>196955</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>167680</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>145591</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>199878</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>170082</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1612; 2899</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1259; 2922</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1035; 2402</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>138513; 144486</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>192084; 198032</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>165431; 167680</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>141101; 147384</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>195812; 200955</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>167832; 170082</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>186774</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>349115</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>306836</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>264102</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>433446</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>371205</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>450877</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>782561</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>678040</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>180874; 188905</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>345036; 350122</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>298069; 309831</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>259058; 265905</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>429140; 434523</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>366139; 373198</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>445070; 454027</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>777349; 784644</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>670560; 682053</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B15-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
